--- a/config_2.2/prop_clear_server.xlsx
+++ b/config_2.2/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -481,7 +481,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,6 +509,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,7 +560,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -591,9 +597,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,10 +612,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -894,8 +897,8 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -937,7 +940,7 @@
       <c r="C2" s="11">
         <v>1591054200</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>1591635600</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1002,16 +1005,16 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="16">
-        <v>1611619200</v>
-      </c>
-      <c r="D6" s="16">
-        <v>1612195199</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="C6" s="18">
+        <v>1612224000</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1612799999</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1053,16 +1056,16 @@
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="11">
         <v>1611619200</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="11">
         <v>1612195199</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1070,16 +1073,16 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="11">
         <v>1611619200</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="11">
         <v>1612195199</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1087,16 +1090,16 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="11">
         <v>1611619200</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="11">
         <v>1612195199</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1104,16 +1107,16 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="11">
         <v>1611619200</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="11">
         <v>1612195199</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1121,16 +1124,16 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="11">
         <v>1611619200</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="11">
         <v>1612195199</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1138,16 +1141,16 @@
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="11">
         <v>1611619200</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="11">
         <v>1612195199</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1155,16 +1158,16 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="11">
         <v>1611619200</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="11">
         <v>1612195199</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="9" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1172,16 +1175,16 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="11">
         <v>1611619200</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="11">
         <v>1612195199</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1189,16 +1192,16 @@
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="11">
         <v>1611619200</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="11">
         <v>1612195199</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="9" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1342,7 +1345,7 @@
       <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="11">
@@ -1359,7 +1362,7 @@
       <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="11">
@@ -1376,7 +1379,7 @@
       <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="11">
@@ -1393,7 +1396,7 @@
       <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="11">
@@ -1410,7 +1413,7 @@
       <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>59</v>
       </c>
       <c r="C30" s="11">
@@ -1580,16 +1583,16 @@
       <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="15">
         <v>1611014400</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="15">
         <v>1611590399</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="16" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1597,16 +1600,16 @@
       <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="15">
         <v>1611014400</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="15">
         <v>1611590399</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="16" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1614,16 +1617,16 @@
       <c r="A42" s="8">
         <v>41</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="15">
         <v>1611014400</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="15">
         <v>1611590399</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="16" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1631,16 +1634,16 @@
       <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="15">
         <v>1611014400</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="15">
         <v>1611590399</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="16" t="s">
         <v>87</v>
       </c>
     </row>
